--- a/קובץ בנקים.xlsx
+++ b/קובץ בנקים.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="חוברת_עבודה_זו" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMA\Documents\projects\ydf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB19EFD-6708-43EE-8BC4-5CCC7A35727F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FD1219-8B55-4472-B173-0019841E94CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0837D7A3-0B03-45D2-AE7D-7A72A8D76540}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
